--- a/data/trans_bre/P2C_R2-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P2C_R2-Clase-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-4,44; 10,11</t>
+          <t>-4,39; 9,95</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>3,09; 18,22</t>
+          <t>2,49; 18,28</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>10,17; 23,96</t>
+          <t>9,83; 23,7</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-0,85; 6,88</t>
+          <t>-0,69; 7,27</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-12,51; 32,63</t>
+          <t>-11,92; 32,03</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>6,53; 45,59</t>
+          <t>5,46; 46,42</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>34,92; 105,35</t>
+          <t>31,75; 102,56</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-7,63; 81,07</t>
+          <t>-7,09; 84,33</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>3,99; 17,77</t>
+          <t>3,66; 17,71</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>8,39; 23,53</t>
+          <t>8,57; 23,88</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>4,41; 19,16</t>
+          <t>3,34; 17,81</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,54; 9,21</t>
+          <t>0,87; 9,31</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>11,53; 68,26</t>
+          <t>11,48; 69,12</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>17,72; 56,37</t>
+          <t>17,1; 57,67</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>10,81; 56,32</t>
+          <t>8,67; 53,17</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>3,61; 117,7</t>
+          <t>5,33; 124,02</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>5,52; 22,01</t>
+          <t>5,86; 22,23</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,51; 11,25</t>
+          <t>-3,32; 11,78</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,77; 16,82</t>
+          <t>-1,77; 16,24</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-4,58; 12,44</t>
+          <t>-5,49; 12,09</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>17,89; 75,93</t>
+          <t>19,41; 79,09</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-7,66; 25,65</t>
+          <t>-6,96; 27,41</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-5,4; 53,75</t>
+          <t>-4,78; 52,75</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-29,05; 304,37</t>
+          <t>-32,56; 293,41</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>4,49; 13,42</t>
+          <t>5,23; 13,9</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>4,12; 13,68</t>
+          <t>3,8; 13,58</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>7,32; 16,17</t>
+          <t>7,03; 15,83</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-0,75; 49,56</t>
+          <t>-0,49; 50,0</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>15,08; 50,38</t>
+          <t>16,77; 50,09</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>8,11; 29,36</t>
+          <t>7,47; 29,51</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>22,6; 53,96</t>
+          <t>20,82; 53,13</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-4,72; 354,37</t>
+          <t>-3,81; 334,32</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>2,29; 15,17</t>
+          <t>2,03; 15,13</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>7,25; 18,32</t>
+          <t>6,95; 18,27</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>2,21; 13,04</t>
+          <t>2,09; 13,04</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,04; 9,32</t>
+          <t>-0,09; 9,44</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>8,03; 62,13</t>
+          <t>5,4; 58,68</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>15,18; 46,73</t>
+          <t>14,81; 46,12</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>5,98; 43,27</t>
+          <t>6,09; 44,11</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>2,1; 88,29</t>
+          <t>-0,58; 85,91</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>3,96; 14,69</t>
+          <t>4,16; 14,43</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>3,06; 15,97</t>
+          <t>2,43; 16,23</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>1,19; 12,71</t>
+          <t>0,92; 12,45</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>9,18; 19,64</t>
+          <t>8,97; 19,75</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>17,67; 106,25</t>
+          <t>18,54; 107,19</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>8,41; 60,87</t>
+          <t>6,64; 61,71</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>3,75; 70,46</t>
+          <t>3,29; 69,44</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>66,35; 543,01</t>
+          <t>63,34; 545,83</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>2,99; 7,69</t>
+          <t>3,05; 7,67</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>4,48; 9,53</t>
+          <t>4,23; 9,23</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>4,97; 9,71</t>
+          <t>4,89; 9,75</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>4,43; 26,39</t>
+          <t>4,69; 24,01</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>9,42; 27,29</t>
+          <t>10,0; 27,33</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>9,65; 21,67</t>
+          <t>9,14; 21,15</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>15,38; 32,42</t>
+          <t>15,05; 32,2</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>35,3; 232,43</t>
+          <t>36,88; 244,69</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P2C_R2-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P2C_R2-Clase-trans_bre.xlsx
@@ -1110,7 +1110,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
